--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="3820" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1900" yWindow="3640" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Passing</t>
   </si>
@@ -141,6 +141,318 @@
   </si>
   <si>
     <t>unimplemented apply</t>
+  </si>
+  <si>
+    <t>S13.2.2_A8_T3.js: unimplemented apply</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>bitwise-and</t>
+  </si>
+  <si>
+    <t>bitwise-or</t>
+  </si>
+  <si>
+    <t>bitwise-not</t>
+  </si>
+  <si>
+    <t>bitwise-xor</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>compound-assignment</t>
+  </si>
+  <si>
+    <t>concatenation</t>
+  </si>
+  <si>
+    <t>conditional</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>does-not-equals</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>S9.8_A5_T2.js: Rosette complaining</t>
+  </si>
+  <si>
+    <t>greater-than</t>
+  </si>
+  <si>
+    <t>greater-than-or-equal</t>
+  </si>
+  <si>
+    <t>grouping</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>left-shift</t>
+  </si>
+  <si>
+    <t>less-than</t>
+  </si>
+  <si>
+    <t>less-than-or-equal</t>
+  </si>
+  <si>
+    <t>logical-and</t>
+  </si>
+  <si>
+    <t>logical-not</t>
+  </si>
+  <si>
+    <t>logical-or</t>
+  </si>
+  <si>
+    <t>modulus</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>postfix-decrement</t>
+  </si>
+  <si>
+    <t>postfix-increment</t>
+  </si>
+  <si>
+    <t>prefix-decrement</t>
+  </si>
+  <si>
+    <t>prefix-increment</t>
+  </si>
+  <si>
+    <t>property-accessors</t>
+  </si>
+  <si>
+    <t>relational</t>
+  </si>
+  <si>
+    <t>right-shift</t>
+  </si>
+  <si>
+    <t>strict-does-not-equals</t>
+  </si>
+  <si>
+    <t>strict-equals</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>typeof</t>
+  </si>
+  <si>
+    <t>unary-minus</t>
+  </si>
+  <si>
+    <t>unary-plus</t>
+  </si>
+  <si>
+    <t>unsigned-right-shift</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>./test_no_evals/language/expressions/addition/</t>
+  </si>
+  <si>
+    <t>S11.7.1_A5.2_T1.js</t>
+  </si>
+  <si>
+    <t>./test_no_evals/language/expressions/compound-assignment/</t>
+  </si>
+  <si>
+    <t>S11.6.1_A3.1_T1.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.6.1_A3.1_T2.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.6.1_A3.1_T2.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.6.1_A4_T1.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.6.1_A4_T2.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.6.1_A4_T5.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.6.1_A4_T7.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.6.1_A4_T8.js: ???</t>
+  </si>
+  <si>
+    <t>S9.3_A2_T2.js: div 0</t>
+  </si>
+  <si>
+    <t>S9.3_A3_T2.js: div 0</t>
+  </si>
+  <si>
+    <t>S9.3_A4.2_T2.js: div 0</t>
+  </si>
+  <si>
+    <t>S9.3_A5_T2.js: div 0</t>
+  </si>
+  <si>
+    <t>11.13.2-47-s.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A3.1_T3.js: ???</t>
+  </si>
+  <si>
+    <t>S11.13.2_A2.1_T1.3.js: ???</t>
+  </si>
+  <si>
+    <t>S11.13.2_A3.2_T3.js: ???</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T1.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T1.4.js: ???</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T2.2.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T2.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T2.6.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.1_T2.8.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T1.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T1.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.2.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.3.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.6.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.7.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.8.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.2_T2.9.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T1.3.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T1.4.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.2.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.3.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.4.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.6.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.7.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.8.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.3_T2.9.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.4_T1.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.4_T2.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.4_T2.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T1.3.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T2.2.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T1.4.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T2.4.js: int-str-&gt;NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T2.6.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A4.5_T2.8.js: int-&gt;str NaN</t>
+  </si>
+  <si>
+    <t>S11.13.2_A7.2_T4.js: div 0</t>
+  </si>
+  <si>
+    <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
   </si>
 </sst>
 </file>
@@ -729,27 +1041,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U23"/>
+  <dimension ref="B1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="I60" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.83203125" style="1"/>
+    <col min="35" max="35" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.83203125" style="1"/>
+    <col min="42" max="42" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="10.83203125" style="1"/>
+    <col min="47" max="47" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.83203125" style="1"/>
+    <col min="49" max="49" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -959,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="b">
-        <f t="shared" ref="D8:J8" si="0">(D3=SUM(D4:D7))</f>
+        <f t="shared" ref="D8:I8" si="0">(D3=SUM(D4:D7))</f>
         <v>1</v>
       </c>
       <c r="E8" s="19" t="b">
@@ -1069,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1469,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1497,9 @@
       <c r="J18" s="23">
         <v>24</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="23">
+        <v>103</v>
+      </c>
       <c r="L18" s="23">
         <v>27</v>
       </c>
@@ -1190,10 +1529,10 @@
       </c>
       <c r="U18" s="7">
         <f>SUM(C18:T18)</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1560,9 @@
       <c r="J19" s="24">
         <v>0</v>
       </c>
-      <c r="K19" s="24"/>
+      <c r="K19" s="24">
+        <v>2</v>
+      </c>
       <c r="L19" s="24">
         <v>0</v>
       </c>
@@ -1251,10 +1592,10 @@
       </c>
       <c r="U19" s="14">
         <f>SUM(C19:T19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1623,9 @@
       <c r="J20" s="25">
         <v>0</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
       <c r="L20" s="25">
         <v>0</v>
       </c>
@@ -1315,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1686,9 @@
       <c r="J21" s="24">
         <v>0</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="24">
+        <v>0</v>
+      </c>
       <c r="L21" s="24">
         <v>0</v>
       </c>
@@ -1376,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>14</v>
       </c>
@@ -1409,51 +1754,1072 @@
         <v>1</v>
       </c>
       <c r="J22" s="19" t="b">
-        <f>(J17=SUM(J18:J21))</f>
+        <f t="shared" ref="J22:T22" si="7">(J17=SUM(J18:J21))</f>
         <v>1</v>
       </c>
       <c r="K22" s="19" t="b">
-        <f>(K17=SUM(K18:K21))</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="L22" s="19" t="b">
-        <f>(L17=SUM(L18:L21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M22" s="19" t="b">
-        <f>(M17=SUM(M18:M21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N22" s="19" t="b">
-        <f>(N17=SUM(N18:N21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O22" s="19" t="b">
-        <f>(O17=SUM(O18:O21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P22" s="19" t="b">
-        <f>(P17=SUM(P18:P21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q22" s="19" t="b">
-        <f>(Q17=SUM(Q18:Q21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R22" s="19" t="b">
-        <f>(R17=SUM(R18:R21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S22" s="19" t="b">
-        <f>(S17=SUM(S18:S21))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T22" s="20" t="b">
-        <f>(T17=SUM(T18:T21))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD26" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI26" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO26" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV26" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY26" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3">
+        <v>21</v>
+      </c>
+      <c r="J27" s="22">
+        <v>28</v>
+      </c>
+      <c r="K27" s="22">
+        <v>4</v>
+      </c>
+      <c r="L27" s="22">
+        <v>308</v>
+      </c>
+      <c r="M27" s="22">
+        <v>4</v>
+      </c>
+      <c r="N27" s="22">
+        <v>14</v>
+      </c>
+      <c r="O27" s="22">
+        <v>34</v>
+      </c>
+      <c r="P27" s="22">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>27</v>
+      </c>
+      <c r="R27" s="22">
+        <v>28</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="4">
+        <f>SUM(C27:AX27)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6">
+        <v>13</v>
+      </c>
+      <c r="H28" s="6">
+        <v>21</v>
+      </c>
+      <c r="I28" s="6">
+        <v>21</v>
+      </c>
+      <c r="J28" s="23">
+        <v>28</v>
+      </c>
+      <c r="K28" s="23">
+        <v>4</v>
+      </c>
+      <c r="L28" s="23">
+        <v>211</v>
+      </c>
+      <c r="M28" s="23">
+        <v>3</v>
+      </c>
+      <c r="N28" s="23">
+        <v>14</v>
+      </c>
+      <c r="O28" s="23">
+        <v>34</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="7">
+        <f>SUM(C28:AX28)</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0</v>
+      </c>
+      <c r="L29" s="24">
+        <v>97</v>
+      </c>
+      <c r="M29" s="24">
+        <v>1</v>
+      </c>
+      <c r="N29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="14">
+        <f>SUM(C29:AX29)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25">
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="10">
+        <f>SUM(C30:AX30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24">
+        <v>0</v>
+      </c>
+      <c r="N31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="11">
+        <f>SUM(C31:AX31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="19" t="b">
+        <f>(C27=SUM(C28:C31))</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="19" t="b">
+        <f t="shared" ref="D32" si="8">(D27=SUM(D28:D31))</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="19" t="b">
+        <f t="shared" ref="E32" si="9">(E27=SUM(E28:E31))</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="b">
+        <f t="shared" ref="F32" si="10">(F27=SUM(F28:F31))</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="19" t="b">
+        <f t="shared" ref="G32" si="11">(G27=SUM(G28:G31))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="19" t="b">
+        <f t="shared" ref="H32" si="12">(H27=SUM(H28:H31))</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="19" t="b">
+        <f t="shared" ref="I32" si="13">(I27=SUM(I28:I31))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="19" t="b">
+        <f t="shared" ref="J32:S32" si="14">(J27=SUM(J28:J31))</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="19" t="b">
+        <f t="shared" ref="T32:AX32" si="15">(T27=SUM(T28:T31))</f>
+        <v>1</v>
+      </c>
+      <c r="U32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AR32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AU32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AV32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AW32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX32" s="20" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="L46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L67" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="3640" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="2700" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>Passing</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>S9.3_A5_T2.js: div 0</t>
-  </si>
-  <si>
-    <t>11.13.2-47-s.js: mod with NaN</t>
   </si>
   <si>
     <t>S11.13.2_A3.1_T3.js: ???</t>
@@ -1043,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I60" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="J57" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2596,16 +2593,13 @@
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="36" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="3:25" x14ac:dyDescent="0.2">
@@ -2613,7 +2607,7 @@
         <v>94</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.2">
@@ -2621,7 +2615,7 @@
         <v>95</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.2">
@@ -2629,7 +2623,7 @@
         <v>96</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.2">
@@ -2637,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.2">
@@ -2645,7 +2639,7 @@
         <v>98</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.2">
@@ -2653,7 +2647,7 @@
         <v>99</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.2">
@@ -2661,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.2">
@@ -2669,7 +2663,7 @@
         <v>101</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.2">
@@ -2677,147 +2671,147 @@
         <v>102</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L56" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L69" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2700" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="2700" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
   <si>
     <t>Passing</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>test_no_evals/language/statements/for/S12.6.3_A14.js</t>
+  </si>
+  <si>
+    <t>test_no_evals/language/statements/throw/S12.13_A3_T3.js</t>
+  </si>
+  <si>
+    <t>test_no_evals/language/statements/try/S12.14_A10_T4.js</t>
+  </si>
+  <si>
+    <t>test_no_evals/language/statements/try/S12.14_A11_T2.js</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,6 +771,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY73"/>
+  <dimension ref="B1:AY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J57" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1355,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+    </row>
     <row r="16" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>18</v>
@@ -1426,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="22">
         <v>24</v>
@@ -1463,7 +1488,7 @@
       </c>
       <c r="U17" s="4">
         <f>SUM(C17:T17)</f>
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
@@ -1489,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J18" s="23">
         <v>24</v>
       </c>
       <c r="K18" s="23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" s="23">
         <v>27</v>
@@ -1510,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="P18" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="23">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R18" s="23">
         <v>20</v>
@@ -1526,7 +1551,7 @@
       </c>
       <c r="U18" s="7">
         <f>SUM(C18:T18)</f>
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
@@ -1552,31 +1577,31 @@
         <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="24">
         <v>0</v>
       </c>
       <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="24">
         <v>2</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0</v>
-      </c>
-      <c r="N19" s="24">
-        <v>0</v>
-      </c>
-      <c r="O19" s="24">
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>0</v>
       </c>
       <c r="R19" s="24">
         <v>0</v>
@@ -1589,7 +1614,7 @@
       </c>
       <c r="U19" s="14">
         <f>SUM(C19:T19)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.2">
@@ -1797,1020 +1822,1034 @@
     </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="K24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="P25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P27" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="V27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="21" t="s">
+      <c r="W27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X26" s="21" t="s">
+      <c r="X27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Y26" s="21" t="s">
+      <c r="Y27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Z26" s="21" t="s">
+      <c r="Z27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AA26" s="21" t="s">
+      <c r="AA27" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AB26" s="21" t="s">
+      <c r="AB27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="21" t="s">
+      <c r="AC27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AD26" s="21" t="s">
+      <c r="AD27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AE26" s="21" t="s">
+      <c r="AE27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AF26" s="21" t="s">
+      <c r="AF27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG26" s="21" t="s">
+      <c r="AG27" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AH26" s="21" t="s">
+      <c r="AH27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AI26" s="21" t="s">
+      <c r="AI27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AJ26" s="21" t="s">
+      <c r="AJ27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AK26" s="21" t="s">
+      <c r="AK27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AL26" s="21" t="s">
+      <c r="AL27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AM26" s="21" t="s">
+      <c r="AM27" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AN26" s="21" t="s">
+      <c r="AN27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AO26" s="21" t="s">
+      <c r="AO27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AP26" s="21" t="s">
+      <c r="AP27" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AQ26" s="21" t="s">
+      <c r="AQ27" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AR26" s="21" t="s">
+      <c r="AR27" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AS26" s="21" t="s">
+      <c r="AS27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AT26" s="21" t="s">
+      <c r="AT27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AU26" s="21" t="s">
+      <c r="AU27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AV26" s="21" t="s">
+      <c r="AV27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AW26" s="21" t="s">
+      <c r="AW27" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AX26" s="21" t="s">
+      <c r="AX27" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AY26" s="17" t="s">
+      <c r="AY27" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>37</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>11</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>28</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>21</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>13</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>21</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="3">
         <v>21</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J28" s="22">
         <v>28</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K28" s="22">
         <v>4</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L28" s="22">
         <v>308</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M28" s="22">
         <v>4</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N28" s="22">
         <v>14</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O28" s="22">
         <v>34</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P28" s="22">
         <v>33</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q28" s="22">
         <v>27</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R28" s="22">
         <v>28</v>
       </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="22"/>
-      <c r="AY27" s="4">
-        <f>SUM(C27:AX27)</f>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="4">
+        <f>SUM(C28:AX28)</f>
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
         <v>25</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>11</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>28</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>21</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>13</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <v>21</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>21</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J29" s="23">
         <v>28</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K29" s="23">
         <v>4</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L29" s="23">
         <v>211</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M29" s="23">
         <v>3</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N29" s="23">
         <v>14</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O29" s="23">
         <v>34</v>
       </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="23"/>
-      <c r="AY28" s="7">
-        <f>SUM(C28:AX28)</f>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="7">
+        <f>SUM(C29:AX29)</f>
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
         <v>12</v>
       </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0</v>
+      </c>
+      <c r="L30" s="24">
         <v>97</v>
       </c>
-      <c r="M29" s="24">
-        <v>1</v>
-      </c>
-      <c r="N29" s="24">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="24"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="24"/>
-      <c r="AY29" s="14">
-        <f>SUM(C29:AX29)</f>
+      <c r="M30" s="24">
+        <v>1</v>
+      </c>
+      <c r="N30" s="24">
+        <v>0</v>
+      </c>
+      <c r="O30" s="24">
+        <v>0</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="14">
+        <f>SUM(C30:AX30)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <v>0</v>
-      </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25">
-        <v>0</v>
-      </c>
-      <c r="N30" s="25">
-        <v>0</v>
-      </c>
-      <c r="O30" s="25">
-        <v>0</v>
-      </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="10">
-        <f>SUM(C30:AX30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25">
+        <v>0</v>
+      </c>
+      <c r="N31" s="25">
+        <v>0</v>
+      </c>
+      <c r="O31" s="25">
+        <v>0</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="10">
+        <f>SUM(C31:AX31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="13">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24">
-        <v>0</v>
-      </c>
-      <c r="N31" s="24">
-        <v>0</v>
-      </c>
-      <c r="O31" s="24">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="24"/>
-      <c r="AY31" s="11">
-        <f>SUM(C31:AX31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <v>0</v>
+      </c>
+      <c r="K32" s="24">
+        <v>0</v>
+      </c>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24">
+        <v>0</v>
+      </c>
+      <c r="N32" s="24">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24">
+        <v>0</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="24"/>
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="24"/>
+      <c r="AY32" s="11">
+        <f>SUM(C32:AX32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:50" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="19" t="b">
-        <f>(C27=SUM(C28:C31))</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="b">
-        <f t="shared" ref="D32" si="8">(D27=SUM(D28:D31))</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="19" t="b">
-        <f t="shared" ref="E32" si="9">(E27=SUM(E28:E31))</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="19" t="b">
-        <f t="shared" ref="F32" si="10">(F27=SUM(F28:F31))</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="19" t="b">
-        <f t="shared" ref="G32" si="11">(G27=SUM(G28:G31))</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="19" t="b">
-        <f t="shared" ref="H32" si="12">(H27=SUM(H28:H31))</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="19" t="b">
-        <f t="shared" ref="I32" si="13">(I27=SUM(I28:I31))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="19" t="b">
-        <f t="shared" ref="J32:S32" si="14">(J27=SUM(J28:J31))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="19" t="b">
+      <c r="C33" s="19" t="b">
+        <f>(C28=SUM(C29:C32))</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="19" t="b">
+        <f t="shared" ref="D33" si="8">(D28=SUM(D29:D32))</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="b">
+        <f t="shared" ref="E33" si="9">(E28=SUM(E29:E32))</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="19" t="b">
+        <f t="shared" ref="F33" si="10">(F28=SUM(F29:F32))</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="19" t="b">
+        <f t="shared" ref="G33" si="11">(G28=SUM(G29:G32))</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="19" t="b">
+        <f t="shared" ref="H33" si="12">(H28=SUM(H29:H32))</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="19" t="b">
+        <f t="shared" ref="I33" si="13">(I28=SUM(I29:I32))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="19" t="b">
+        <f t="shared" ref="J33:S33" si="14">(J28=SUM(J29:J32))</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="L32" s="19" t="b">
+      <c r="L33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="M32" s="19" t="b">
+      <c r="M33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="N32" s="19" t="b">
+      <c r="N33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="O32" s="19" t="b">
+      <c r="O33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P32" s="19" t="b">
+      <c r="P33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="19" t="b">
+      <c r="Q33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R32" s="19" t="b">
+      <c r="R33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S32" s="19" t="b">
+      <c r="S33" s="19" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="T32" s="19" t="b">
-        <f t="shared" ref="T32:AX32" si="15">(T27=SUM(T28:T31))</f>
-        <v>1</v>
-      </c>
-      <c r="U32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="X32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AF32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AI32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AK32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AL32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AP32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AR32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AS32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AT32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AU32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AV32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AW32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX32" s="20" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+      <c r="T33" s="19" t="b">
+        <f t="shared" ref="T33:AX33" si="15">(T28=SUM(T29:T32))</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AR33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AU33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AV33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AW33" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX33" s="20" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:50" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y35" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
+    <row r="45" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L46" s="1" t="s">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L47" s="1" t="s">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="L48" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L57" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L73" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="1" t="s">
         <v>140</v>
       </c>
     </row>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
   <si>
     <t>Passing</t>
   </si>
@@ -450,25 +450,13 @@
   </si>
   <si>
     <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>test_no_evals/language/statements/for/S12.6.3_A14.js</t>
-  </si>
-  <si>
-    <t>test_no_evals/language/statements/throw/S12.13_A3_T3.js</t>
-  </si>
-  <si>
-    <t>test_no_evals/language/statements/try/S12.14_A10_T4.js</t>
-  </si>
-  <si>
-    <t>test_no_evals/language/statements/try/S12.14_A11_T2.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,8 +472,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -696,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +775,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY74"/>
+  <dimension ref="B1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1105,16 @@
     <col min="50" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
     <row r="2" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>4</v>
@@ -1514,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" s="23">
         <v>24</v>
@@ -1535,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="P18" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="23">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R18" s="23">
         <v>20</v>
@@ -1551,7 +1564,7 @@
       </c>
       <c r="U18" s="7">
         <f>SUM(C18:T18)</f>
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
@@ -1577,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="24">
         <v>0</v>
@@ -1598,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="24">
         <v>0</v>
@@ -1614,7 +1627,7 @@
       </c>
       <c r="U19" s="14">
         <f>SUM(C19:T19)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.2">
@@ -1822,1034 +1835,1020 @@
     </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="Q24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="I25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+    </row>
+    <row r="25" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O26" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="Q26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="21" t="s">
+      <c r="R26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="S27" s="21" t="s">
+      <c r="S26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="T27" s="21" t="s">
+      <c r="T26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="21" t="s">
+      <c r="V26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="W27" s="21" t="s">
+      <c r="W26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X27" s="21" t="s">
+      <c r="X26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Y27" s="21" t="s">
+      <c r="Y26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Z27" s="21" t="s">
+      <c r="Z26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AA27" s="21" t="s">
+      <c r="AA26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AB27" s="21" t="s">
+      <c r="AB26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AC27" s="21" t="s">
+      <c r="AC26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AD27" s="21" t="s">
+      <c r="AD26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AE27" s="21" t="s">
+      <c r="AE26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AF27" s="21" t="s">
+      <c r="AF26" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG27" s="21" t="s">
+      <c r="AG26" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AH27" s="21" t="s">
+      <c r="AH26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AI27" s="21" t="s">
+      <c r="AI26" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AJ27" s="21" t="s">
+      <c r="AJ26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AK27" s="21" t="s">
+      <c r="AK26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AL27" s="21" t="s">
+      <c r="AL26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AM27" s="21" t="s">
+      <c r="AM26" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AN27" s="21" t="s">
+      <c r="AN26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AO27" s="21" t="s">
+      <c r="AO26" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AP27" s="21" t="s">
+      <c r="AP26" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AQ27" s="21" t="s">
+      <c r="AQ26" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AR27" s="21" t="s">
+      <c r="AR26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AS27" s="21" t="s">
+      <c r="AS26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AT27" s="21" t="s">
+      <c r="AT26" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AU27" s="21" t="s">
+      <c r="AU26" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AV27" s="21" t="s">
+      <c r="AV26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AW27" s="21" t="s">
+      <c r="AW26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AX27" s="21" t="s">
+      <c r="AX26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AY27" s="17" t="s">
+      <c r="AY26" s="17" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3">
+        <v>21</v>
+      </c>
+      <c r="J27" s="22">
+        <v>28</v>
+      </c>
+      <c r="K27" s="22">
+        <v>4</v>
+      </c>
+      <c r="L27" s="22">
+        <v>308</v>
+      </c>
+      <c r="M27" s="22">
+        <v>4</v>
+      </c>
+      <c r="N27" s="22">
+        <v>14</v>
+      </c>
+      <c r="O27" s="22">
+        <v>34</v>
+      </c>
+      <c r="P27" s="22">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>27</v>
+      </c>
+      <c r="R27" s="22">
+        <v>28</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="4">
+        <f>SUM(C27:AX27)</f>
+        <v>632</v>
+      </c>
+    </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>37</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6">
         <v>11</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <v>28</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>21</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <v>13</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>21</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="6">
         <v>21</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>28</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="23">
         <v>4</v>
       </c>
-      <c r="L28" s="22">
-        <v>308</v>
-      </c>
-      <c r="M28" s="22">
-        <v>4</v>
-      </c>
-      <c r="N28" s="22">
+      <c r="L28" s="23">
+        <v>211</v>
+      </c>
+      <c r="M28" s="23">
+        <v>3</v>
+      </c>
+      <c r="N28" s="23">
         <v>14</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="23">
         <v>34</v>
       </c>
-      <c r="P28" s="22">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>27</v>
-      </c>
-      <c r="R28" s="22">
-        <v>28</v>
-      </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="4">
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="7">
         <f>SUM(C28:AX28)</f>
-        <v>632</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>25</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6">
-        <v>21</v>
-      </c>
-      <c r="G29" s="6">
-        <v>13</v>
-      </c>
-      <c r="H29" s="6">
-        <v>21</v>
-      </c>
-      <c r="I29" s="6">
-        <v>21</v>
-      </c>
-      <c r="J29" s="23">
-        <v>28</v>
-      </c>
-      <c r="K29" s="23">
-        <v>4</v>
-      </c>
-      <c r="L29" s="23">
-        <v>211</v>
-      </c>
-      <c r="M29" s="23">
+      <c r="B29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24">
+        <v>0</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0</v>
+      </c>
+      <c r="L29" s="24">
+        <v>97</v>
+      </c>
+      <c r="M29" s="24">
+        <v>1</v>
+      </c>
+      <c r="N29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="24"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="14">
+        <f>SUM(C29:AX29)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25">
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="10">
+        <f>SUM(C30:AX30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="23">
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24">
+        <v>0</v>
+      </c>
+      <c r="N31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="11">
+        <f>SUM(C31:AX31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="23">
-        <v>34</v>
-      </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
-      <c r="AX29" s="23"/>
-      <c r="AY29" s="7">
-        <f>SUM(C29:AX29)</f>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0</v>
-      </c>
-      <c r="K30" s="24">
-        <v>0</v>
-      </c>
-      <c r="L30" s="24">
+      <c r="C32" s="19" t="b">
+        <f>(C27=SUM(C28:C31))</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="19" t="b">
+        <f t="shared" ref="D32" si="8">(D27=SUM(D28:D31))</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="19" t="b">
+        <f t="shared" ref="E32" si="9">(E27=SUM(E28:E31))</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="b">
+        <f t="shared" ref="F32" si="10">(F27=SUM(F28:F31))</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="19" t="b">
+        <f t="shared" ref="G32" si="11">(G27=SUM(G28:G31))</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="19" t="b">
+        <f t="shared" ref="H32" si="12">(H27=SUM(H28:H31))</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="19" t="b">
+        <f t="shared" ref="I32" si="13">(I27=SUM(I28:I31))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="19" t="b">
+        <f t="shared" ref="J32:S32" si="14">(J27=SUM(J28:J31))</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="19" t="b">
+        <f t="shared" ref="T32:AX32" si="15">(T27=SUM(T28:T31))</f>
+        <v>1</v>
+      </c>
+      <c r="U32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AR32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AU32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AV32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AW32" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX32" s="20" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="24">
-        <v>1</v>
-      </c>
-      <c r="N30" s="24">
-        <v>0</v>
-      </c>
-      <c r="O30" s="24">
-        <v>0</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="24"/>
-      <c r="AX30" s="24"/>
-      <c r="AY30" s="14">
-        <f>SUM(C30:AX30)</f>
+      <c r="L40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0</v>
-      </c>
-      <c r="K31" s="25">
-        <v>0</v>
-      </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25">
-        <v>0</v>
-      </c>
-      <c r="N31" s="25">
-        <v>0</v>
-      </c>
-      <c r="O31" s="25">
-        <v>0</v>
-      </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="25"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25"/>
-      <c r="AY31" s="10">
-        <f>SUM(C31:AX31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
-        <v>0</v>
-      </c>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24">
-        <v>0</v>
-      </c>
-      <c r="N32" s="24">
-        <v>0</v>
-      </c>
-      <c r="O32" s="24">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
-      <c r="AU32" s="24"/>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="11">
-        <f>SUM(C32:AX32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:50" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="19" t="b">
-        <f>(C28=SUM(C29:C32))</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="19" t="b">
-        <f t="shared" ref="D33" si="8">(D28=SUM(D29:D32))</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="19" t="b">
-        <f t="shared" ref="E33" si="9">(E28=SUM(E29:E32))</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="19" t="b">
-        <f t="shared" ref="F33" si="10">(F28=SUM(F29:F32))</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="19" t="b">
-        <f t="shared" ref="G33" si="11">(G28=SUM(G29:G32))</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="19" t="b">
-        <f t="shared" ref="H33" si="12">(H28=SUM(H29:H32))</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="19" t="b">
-        <f t="shared" ref="I33" si="13">(I28=SUM(I29:I32))</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="19" t="b">
-        <f t="shared" ref="J33:S33" si="14">(J28=SUM(J29:J32))</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="19" t="b">
-        <f t="shared" ref="T33:AX33" si="15">(T28=SUM(T29:T32))</f>
-        <v>1</v>
-      </c>
-      <c r="U33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="W33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="X33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Y33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AC33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AF33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AH33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AI33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AK33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AL33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AP33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AR33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AS33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AT33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AU33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AV33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AW33" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX33" s="20" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:50" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L46" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L47" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
       <c r="L48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L57" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L59" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L60" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L70" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L72" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L73" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L74" s="1" t="s">
         <v>140</v>
       </c>
     </row>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2700" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="2600" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,6 @@
     <t>Correct:</t>
   </si>
   <si>
-    <t>number/S8.5_A11_T1.js: 1/0 != inf</t>
-  </si>
-  <si>
-    <t>DO NOT RUN: number/8.5.1.js</t>
-  </si>
-  <si>
-    <t>number/S8.5_A13_T2.js: too precise</t>
-  </si>
-  <si>
     <t>Statements</t>
   </si>
   <si>
@@ -450,6 +441,15 @@
   </si>
   <si>
     <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
+  </si>
+  <si>
+    <t>test_no_evals/language/arguments-object/10.6-11-b-1.js</t>
+  </si>
+  <si>
+    <t>number/S8.5_A13_T2.js</t>
+  </si>
+  <si>
+    <t>number/S8.5_A2.1.js</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,6 +778,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,15 +1060,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY73"/>
+  <dimension ref="B1:AY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="40.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -1106,14 +1110,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -1351,1304 +1355,1326 @@
     </row>
     <row r="9" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="J13" s="1" t="s">
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-    </row>
-    <row r="16" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>60</v>
+      </c>
+      <c r="J14" s="22">
+        <v>24</v>
+      </c>
+      <c r="K14" s="22">
+        <v>105</v>
+      </c>
+      <c r="L14" s="22">
+        <v>27</v>
+      </c>
+      <c r="M14" s="22">
+        <v>2</v>
+      </c>
+      <c r="N14" s="22">
+        <v>14</v>
+      </c>
+      <c r="O14" s="22">
+        <v>10</v>
+      </c>
+      <c r="P14" s="22">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>64</v>
+      </c>
+      <c r="R14" s="22">
         <v>20</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="S14" s="22">
         <v>21</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="T14" s="22">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <f>SUM(C14:T14)</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6">
         <v>22</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>60</v>
+      </c>
+      <c r="J15" s="23">
         <v>24</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="K15" s="23">
+        <v>104</v>
+      </c>
+      <c r="L15" s="23">
+        <v>27</v>
+      </c>
+      <c r="M15" s="23">
+        <v>2</v>
+      </c>
+      <c r="N15" s="23">
+        <v>14</v>
+      </c>
+      <c r="O15" s="23">
+        <v>10</v>
+      </c>
+      <c r="P15" s="23">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>64</v>
+      </c>
+      <c r="R15" s="23">
+        <v>20</v>
+      </c>
+      <c r="S15" s="23">
+        <v>21</v>
+      </c>
+      <c r="T15" s="23">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <f>SUM(C15:T15)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1</v>
+      </c>
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0</v>
+      </c>
+      <c r="S16" s="24">
+        <v>0</v>
+      </c>
+      <c r="T16" s="24">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <f>SUM(C16:T16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <f>SUM(C17:T17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0</v>
+      </c>
+      <c r="R18" s="24">
+        <v>0</v>
+      </c>
+      <c r="S18" s="24">
+        <v>0</v>
+      </c>
+      <c r="T18" s="24">
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <f>SUM(C18:T18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19" t="b">
+        <f>(C14=SUM(C15:C18))</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="b">
+        <f t="shared" ref="D19" si="1">(D14=SUM(D15:D18))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="19" t="b">
+        <f t="shared" ref="E19" si="2">(E14=SUM(E15:E18))</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="b">
+        <f t="shared" ref="F19" si="3">(F14=SUM(F15:F18))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="b">
+        <f t="shared" ref="G19" si="4">(G14=SUM(G15:G18))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="19" t="b">
+        <f t="shared" ref="H19" si="5">(H14=SUM(H15:H18))</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="19" t="b">
+        <f t="shared" ref="I19" si="6">(I14=SUM(I15:I18))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="19" t="b">
+        <f t="shared" ref="J19:T19" si="7">(J14=SUM(J15:J18))</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="19" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT23" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW23" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY23" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>21</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21</v>
+      </c>
+      <c r="J24" s="22">
+        <v>28</v>
+      </c>
+      <c r="K24" s="22">
+        <v>4</v>
+      </c>
+      <c r="L24" s="22">
+        <v>308</v>
+      </c>
+      <c r="M24" s="22">
+        <v>4</v>
+      </c>
+      <c r="N24" s="22">
+        <v>14</v>
+      </c>
+      <c r="O24" s="22">
+        <v>34</v>
+      </c>
+      <c r="P24" s="22">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>27</v>
+      </c>
+      <c r="R24" s="22">
+        <v>28</v>
+      </c>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="4">
+        <f>SUM(C24:AX24)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
         <v>25</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="21" t="s">
+      <c r="D25" s="6">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
         <v>28</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="21" t="s">
+      <c r="F25" s="6">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6">
+        <v>13</v>
+      </c>
+      <c r="H25" s="6">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6">
+        <v>21</v>
+      </c>
+      <c r="J25" s="23">
+        <v>28</v>
+      </c>
+      <c r="K25" s="23">
+        <v>4</v>
+      </c>
+      <c r="L25" s="23">
+        <v>211</v>
+      </c>
+      <c r="M25" s="23">
+        <v>3</v>
+      </c>
+      <c r="N25" s="23">
+        <v>14</v>
+      </c>
+      <c r="O25" s="23">
         <v>34</v>
       </c>
-      <c r="S16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3">
-        <v>22</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>60</v>
-      </c>
-      <c r="J17" s="22">
-        <v>24</v>
-      </c>
-      <c r="K17" s="22">
-        <v>105</v>
-      </c>
-      <c r="L17" s="22">
-        <v>27</v>
-      </c>
-      <c r="M17" s="22">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="7">
+        <f>SUM(C25:AX25)</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24">
+        <v>97</v>
+      </c>
+      <c r="M26" s="24">
+        <v>1</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="14">
+        <f>SUM(C26:AX26)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="22">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25">
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="10">
+        <f>SUM(C27:AX27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="11">
+        <f>SUM(C28:AX28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="22">
-        <v>10</v>
-      </c>
-      <c r="P17" s="22">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>64</v>
-      </c>
-      <c r="R17" s="22">
-        <v>20</v>
-      </c>
-      <c r="S17" s="22">
-        <v>21</v>
-      </c>
-      <c r="T17" s="22">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4">
-        <f>SUM(C17:T17)</f>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>60</v>
-      </c>
-      <c r="J18" s="23">
-        <v>24</v>
-      </c>
-      <c r="K18" s="23">
-        <v>104</v>
-      </c>
-      <c r="L18" s="23">
-        <v>27</v>
-      </c>
-      <c r="M18" s="23">
-        <v>2</v>
-      </c>
-      <c r="N18" s="23">
-        <v>14</v>
-      </c>
-      <c r="O18" s="23">
-        <v>10</v>
-      </c>
-      <c r="P18" s="23">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>64</v>
-      </c>
-      <c r="R18" s="23">
-        <v>20</v>
-      </c>
-      <c r="S18" s="23">
-        <v>21</v>
-      </c>
-      <c r="T18" s="23">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <f>SUM(C18:T18)</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
-      <c r="K19" s="24">
-        <v>1</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0</v>
-      </c>
-      <c r="N19" s="24">
-        <v>0</v>
-      </c>
-      <c r="O19" s="24">
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>0</v>
-      </c>
-      <c r="R19" s="24">
-        <v>0</v>
-      </c>
-      <c r="S19" s="24">
-        <v>0</v>
-      </c>
-      <c r="T19" s="24">
-        <v>0</v>
-      </c>
-      <c r="U19" s="14">
-        <f>SUM(C19:T19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
-        <v>0</v>
-      </c>
-      <c r="K20" s="25">
-        <v>0</v>
-      </c>
-      <c r="L20" s="25">
-        <v>0</v>
-      </c>
-      <c r="M20" s="25">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0</v>
-      </c>
-      <c r="S20" s="25">
-        <v>0</v>
-      </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
-      <c r="U20" s="10">
-        <f>SUM(C20:T20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24">
-        <v>0</v>
-      </c>
-      <c r="N21" s="24">
-        <v>0</v>
-      </c>
-      <c r="O21" s="24">
-        <v>0</v>
-      </c>
-      <c r="P21" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="24">
-        <v>0</v>
-      </c>
-      <c r="R21" s="24">
-        <v>0</v>
-      </c>
-      <c r="S21" s="24">
-        <v>0</v>
-      </c>
-      <c r="T21" s="24">
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <f>SUM(C21:T21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="19" t="b">
-        <f>(C17=SUM(C18:C21))</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="19" t="b">
-        <f t="shared" ref="D22" si="1">(D17=SUM(D18:D21))</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="19" t="b">
-        <f t="shared" ref="E22" si="2">(E17=SUM(E18:E21))</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="19" t="b">
-        <f t="shared" ref="F22" si="3">(F17=SUM(F18:F21))</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="19" t="b">
-        <f t="shared" ref="G22" si="4">(G17=SUM(G18:G21))</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="19" t="b">
-        <f t="shared" ref="H22" si="5">(H17=SUM(H18:H21))</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="19" t="b">
-        <f t="shared" ref="I22" si="6">(I17=SUM(I18:I21))</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="19" t="b">
-        <f t="shared" ref="J22:T22" si="7">(J17=SUM(J18:J21))</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="19" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="20" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="21" t="s">
+      <c r="C29" s="19" t="b">
+        <f>(C24=SUM(C25:C28))</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="19" t="b">
+        <f t="shared" ref="D29" si="8">(D24=SUM(D25:D28))</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="19" t="b">
+        <f t="shared" ref="E29" si="9">(E24=SUM(E25:E28))</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="19" t="b">
+        <f t="shared" ref="F29" si="10">(F24=SUM(F25:F28))</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="19" t="b">
+        <f t="shared" ref="G29" si="11">(G24=SUM(G25:G28))</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="b">
+        <f t="shared" ref="H29" si="12">(H24=SUM(H25:H28))</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="19" t="b">
+        <f t="shared" ref="I29" si="13">(I24=SUM(I25:I28))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="19" t="b">
+        <f t="shared" ref="J29:S29" si="14">(J24=SUM(J25:J28))</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="19" t="b">
+        <f t="shared" ref="T29:AX29" si="15">(T24=SUM(T25:T28))</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AR29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AU29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AV29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AW29" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX29" s="20" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="W26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="X26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z26" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG26" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH26" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI26" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ26" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL26" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN26" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU26" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV26" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW26" s="21" t="s">
+      <c r="Y31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AX26" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY26" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3">
-        <v>21</v>
-      </c>
-      <c r="G27" s="3">
-        <v>13</v>
-      </c>
-      <c r="H27" s="3">
-        <v>21</v>
-      </c>
-      <c r="I27" s="3">
-        <v>21</v>
-      </c>
-      <c r="J27" s="22">
-        <v>28</v>
-      </c>
-      <c r="K27" s="22">
-        <v>4</v>
-      </c>
-      <c r="L27" s="22">
-        <v>308</v>
-      </c>
-      <c r="M27" s="22">
-        <v>4</v>
-      </c>
-      <c r="N27" s="22">
-        <v>14</v>
-      </c>
-      <c r="O27" s="22">
-        <v>34</v>
-      </c>
-      <c r="P27" s="22">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>27</v>
-      </c>
-      <c r="R27" s="22">
-        <v>28</v>
-      </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
-      <c r="AR27" s="22"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="22"/>
-      <c r="AY27" s="4">
-        <f>SUM(C27:AX27)</f>
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>25</v>
-      </c>
-      <c r="D28" s="6">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6">
-        <v>28</v>
-      </c>
-      <c r="F28" s="6">
-        <v>21</v>
-      </c>
-      <c r="G28" s="6">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6">
-        <v>21</v>
-      </c>
-      <c r="I28" s="6">
-        <v>21</v>
-      </c>
-      <c r="J28" s="23">
-        <v>28</v>
-      </c>
-      <c r="K28" s="23">
-        <v>4</v>
-      </c>
-      <c r="L28" s="23">
-        <v>211</v>
-      </c>
-      <c r="M28" s="23">
-        <v>3</v>
-      </c>
-      <c r="N28" s="23">
-        <v>14</v>
-      </c>
-      <c r="O28" s="23">
-        <v>34</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="23"/>
-      <c r="AY28" s="7">
-        <f>SUM(C28:AX28)</f>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24">
-        <v>97</v>
-      </c>
-      <c r="M29" s="24">
-        <v>1</v>
-      </c>
-      <c r="N29" s="24">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="24"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="24"/>
-      <c r="AY29" s="14">
-        <f>SUM(C29:AX29)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <v>0</v>
-      </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25">
-        <v>0</v>
-      </c>
-      <c r="N30" s="25">
-        <v>0</v>
-      </c>
-      <c r="O30" s="25">
-        <v>0</v>
-      </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="10">
-        <f>SUM(C30:AX30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24">
-        <v>0</v>
-      </c>
-      <c r="N31" s="24">
-        <v>0</v>
-      </c>
-      <c r="O31" s="24">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="24"/>
-      <c r="AY31" s="11">
-        <f>SUM(C31:AX31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="19" t="b">
-        <f>(C27=SUM(C28:C31))</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="b">
-        <f t="shared" ref="D32" si="8">(D27=SUM(D28:D31))</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="19" t="b">
-        <f t="shared" ref="E32" si="9">(E27=SUM(E28:E31))</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="19" t="b">
-        <f t="shared" ref="F32" si="10">(F27=SUM(F28:F31))</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="19" t="b">
-        <f t="shared" ref="G32" si="11">(G27=SUM(G28:G31))</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="19" t="b">
-        <f t="shared" ref="H32" si="12">(H27=SUM(H28:H31))</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="19" t="b">
-        <f t="shared" ref="I32" si="13">(I27=SUM(I28:I31))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="19" t="b">
-        <f t="shared" ref="J32:S32" si="14">(J27=SUM(J28:J31))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="19" t="b">
-        <f t="shared" ref="T32:AX32" si="15">(T27=SUM(T28:T31))</f>
-        <v>1</v>
-      </c>
-      <c r="U32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="X32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AF32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AI32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AK32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AL32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AP32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AR32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AS32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AT32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AU32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AV32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AW32" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX32" s="20" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="L34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="L35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
@@ -2656,7 +2682,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
@@ -2664,7 +2690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>97</v>
       </c>
@@ -2672,7 +2698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>98</v>
       </c>
@@ -2680,7 +2706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>99</v>
       </c>
@@ -2688,41 +2714,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>101</v>
-      </c>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>102</v>
-      </c>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L45" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L47" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L48" s="1" t="s">
         <v>115</v>
       </c>
@@ -2804,12 +2821,12 @@
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
@@ -2819,12 +2836,12 @@
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
@@ -2835,21 +2852,6 @@
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L70" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L71" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L72" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L73" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>Passing</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Correct:</t>
   </si>
   <si>
+    <t>number/S8.5_A13_T2.js: too precise</t>
+  </si>
+  <si>
     <t>Statements</t>
   </si>
   <si>
@@ -284,51 +287,12 @@
     <t>void</t>
   </si>
   <si>
-    <t>./test_no_evals/language/expressions/addition/</t>
-  </si>
-  <si>
     <t>S11.7.1_A5.2_T1.js</t>
   </si>
   <si>
     <t>./test_no_evals/language/expressions/compound-assignment/</t>
   </si>
   <si>
-    <t>S11.6.1_A3.1_T1.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.6.1_A3.1_T2.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.6.1_A3.1_T2.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.6.1_A4_T1.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.6.1_A4_T2.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.6.1_A4_T5.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.6.1_A4_T7.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.6.1_A4_T8.js: ???</t>
-  </si>
-  <si>
-    <t>S9.3_A2_T2.js: div 0</t>
-  </si>
-  <si>
-    <t>S9.3_A3_T2.js: div 0</t>
-  </si>
-  <si>
-    <t>S9.3_A4.2_T2.js: div 0</t>
-  </si>
-  <si>
-    <t>S9.3_A5_T2.js: div 0</t>
-  </si>
-  <si>
     <t>S11.13.2_A3.1_T3.js: ???</t>
   </si>
   <si>
@@ -443,13 +407,7 @@
     <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
   </si>
   <si>
-    <t>test_no_evals/language/arguments-object/10.6-11-b-1.js</t>
-  </si>
-  <si>
-    <t>number/S8.5_A13_T2.js</t>
-  </si>
-  <si>
-    <t>number/S8.5_A2.1.js</t>
+    <t>number/S8.5_A2.1.js: overflow not overflow</t>
   </si>
 </sst>
 </file>
@@ -697,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,6 +730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1062,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,14 +1071,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -1355,89 +1316,86 @@
     </row>
     <row r="9" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U13" s="17" t="s">
         <v>5</v>
@@ -1838,157 +1796,205 @@
     <row r="20" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="K21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+    </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="I23" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V23" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W23" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB23" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC23" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF23" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG23" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH23" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI23" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ23" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK23" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL23" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN23" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO23" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ23" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR23" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS23" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT23" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU23" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW23" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX23" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY23" s="17" t="s">
         <v>5</v>
@@ -2088,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6">
         <v>11</v>
@@ -2163,7 +2169,7 @@
       <c r="AX25" s="23"/>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2171,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D26" s="13">
         <v>0</v>
@@ -2246,7 +2252,7 @@
       <c r="AX26" s="24"/>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
@@ -2611,247 +2617,206 @@
       </c>
     </row>
     <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="L30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L33" s="1" t="s">
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L35" s="1" t="s">
+    <row r="47" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" s="1" t="s">
+    <row r="48" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L46" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L47" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="L48" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L49" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L50" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L51" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L53" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L55" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L56" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L57" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L59" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L60" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L61" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L62" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L63" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L64" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L65" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L67" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L68" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L69" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L70" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2600" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="3980" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>Passing</t>
   </si>
@@ -191,9 +191,6 @@
     <t>equals</t>
   </si>
   <si>
-    <t>S9.8_A5_T2.js: Rosette complaining</t>
-  </si>
-  <si>
     <t>greater-than</t>
   </si>
   <si>
@@ -287,134 +284,20 @@
     <t>void</t>
   </si>
   <si>
-    <t>S11.7.1_A5.2_T1.js</t>
-  </si>
-  <si>
-    <t>./test_no_evals/language/expressions/compound-assignment/</t>
-  </si>
-  <si>
-    <t>S11.13.2_A3.1_T3.js: ???</t>
-  </si>
-  <si>
-    <t>S11.13.2_A2.1_T1.3.js: ???</t>
-  </si>
-  <si>
-    <t>S11.13.2_A3.2_T3.js: ???</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T1.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T1.4.js: ???</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T2.2.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T2.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T2.6.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.1_T2.8.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T1.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T1.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.2.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.3.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.6.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.7.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.8.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.2_T2.9.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T1.3.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T1.4.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.2.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.3.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.4.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.6.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.7.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.8.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.3_T2.9.js: mod with NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.4_T1.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.4_T2.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.4_T2.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T1.3.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T2.2.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T1.4.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T2.4.js: int-str-&gt;NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T2.6.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A4.5_T2.8.js: int-&gt;str NaN</t>
-  </si>
-  <si>
-    <t>S11.13.2_A7.2_T4.js: div 0</t>
-  </si>
-  <si>
-    <t>S11.13.2_A7.3_T4.js: mod with NaN</t>
-  </si>
-  <si>
     <t>number/S8.5_A2.1.js: overflow not overflow</t>
+  </si>
+  <si>
+    <t>S11.9.2_A5.2.js: hex conversion</t>
+  </si>
+  <si>
+    <t>S11.9.1_A5.2.js: hex conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,13 +315,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -655,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,10 +634,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,38 +923,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY70"/>
+  <dimension ref="B1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="X12" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="40.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" style="1"/>
+    <col min="17" max="18" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
     <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="25" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="10.83203125" style="1"/>
     <col min="35" max="35" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1071,13 +979,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="29"/>
     </row>
     <row r="2" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1325,12 +1233,12 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="30"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -1802,51 +1710,51 @@
     <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="27"/>
       <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
+      <c r="AX22" s="27"/>
     </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
@@ -1904,97 +1812,97 @@
         <v>25</v>
       </c>
       <c r="T23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="V23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="W23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="X23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="Y23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Z23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Z23" s="21" t="s">
+      <c r="AA23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AB23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AC23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AD23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AE23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AE23" s="21" t="s">
+      <c r="AF23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AG23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AH23" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="21" t="s">
+      <c r="AI23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AI23" s="21" t="s">
+      <c r="AJ23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AJ23" s="21" t="s">
+      <c r="AK23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="AL23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AL23" s="21" t="s">
+      <c r="AM23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AN23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AO23" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AO23" s="21" t="s">
+      <c r="AP23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AP23" s="21" t="s">
+      <c r="AQ23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AQ23" s="21" t="s">
+      <c r="AR23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AR23" s="21" t="s">
+      <c r="AS23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AT23" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AT23" s="21" t="s">
+      <c r="AU23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AV23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AW23" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AW23" s="21" t="s">
+      <c r="AX23" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="AX23" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="AY23" s="17" t="s">
         <v>5</v>
@@ -2052,41 +1960,105 @@
       <c r="R24" s="22">
         <v>28</v>
       </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
-      <c r="AW24" s="22"/>
-      <c r="AX24" s="22"/>
+      <c r="S24" s="22">
+        <v>3</v>
+      </c>
+      <c r="T24" s="22">
+        <v>39</v>
+      </c>
+      <c r="U24" s="22">
+        <v>35</v>
+      </c>
+      <c r="V24" s="22">
+        <v>7</v>
+      </c>
+      <c r="W24" s="22">
+        <v>12</v>
+      </c>
+      <c r="X24" s="22">
+        <v>26</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>40</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD24" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="22">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="22">
+        <v>11</v>
+      </c>
+      <c r="AH24" s="22">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="22">
+        <v>19</v>
+      </c>
+      <c r="AJ24" s="22">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="22">
+        <v>20</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>19</v>
+      </c>
+      <c r="AM24" s="22">
+        <v>17</v>
+      </c>
+      <c r="AN24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="22">
+        <v>28</v>
+      </c>
+      <c r="AP24" s="22">
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="22">
+        <v>19</v>
+      </c>
+      <c r="AR24" s="22">
+        <v>30</v>
+      </c>
+      <c r="AS24" s="22">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="22">
+        <v>6</v>
+      </c>
+      <c r="AU24" s="22">
+        <v>11</v>
+      </c>
+      <c r="AV24" s="22">
+        <v>9</v>
+      </c>
+      <c r="AW24" s="22">
+        <v>36</v>
+      </c>
+      <c r="AX24" s="22">
+        <v>8</v>
+      </c>
       <c r="AY24" s="4">
         <f>SUM(C24:AX24)</f>
-        <v>632</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.2">
@@ -2121,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="L25" s="23">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="M25" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="23">
         <v>14</v>
@@ -2132,44 +2104,114 @@
       <c r="O25" s="23">
         <v>34</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
+      <c r="P25" s="23">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>26</v>
+      </c>
+      <c r="R25" s="23">
+        <v>27</v>
+      </c>
+      <c r="S25" s="23">
+        <v>3</v>
+      </c>
+      <c r="T25" s="23">
+        <v>39</v>
+      </c>
+      <c r="U25" s="23">
+        <v>35</v>
+      </c>
+      <c r="V25" s="23">
+        <v>7</v>
+      </c>
+      <c r="W25" s="23">
+        <v>12</v>
+      </c>
+      <c r="X25" s="23">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="23">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="23">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="23">
+        <v>40</v>
+      </c>
+      <c r="AB25" s="23">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="23">
+        <v>13</v>
+      </c>
+      <c r="AD25" s="23">
+        <v>13</v>
+      </c>
+      <c r="AE25" s="23">
+        <v>24</v>
+      </c>
+      <c r="AF25" s="23">
+        <v>31</v>
+      </c>
+      <c r="AG25" s="23">
+        <v>11</v>
+      </c>
+      <c r="AH25" s="23">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="23">
+        <v>19</v>
+      </c>
+      <c r="AJ25" s="23">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="23">
+        <v>20</v>
+      </c>
+      <c r="AL25" s="23">
+        <v>19</v>
+      </c>
+      <c r="AM25" s="23">
+        <v>16</v>
+      </c>
+      <c r="AN25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="23">
+        <v>27</v>
+      </c>
+      <c r="AP25" s="23">
+        <v>18</v>
+      </c>
+      <c r="AQ25" s="23">
+        <v>18</v>
+      </c>
+      <c r="AR25" s="23">
+        <v>30</v>
+      </c>
+      <c r="AS25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>9</v>
+      </c>
+      <c r="AV25" s="23">
+        <v>9</v>
+      </c>
+      <c r="AW25" s="23">
+        <v>34</v>
+      </c>
+      <c r="AX25" s="23">
+        <v>8</v>
+      </c>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>446</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2204,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="24">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="M26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="24">
         <v>0</v>
@@ -2215,44 +2257,114 @@
       <c r="O26" s="24">
         <v>0</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
+      <c r="P26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>1</v>
+      </c>
+      <c r="R26" s="24">
+        <v>1</v>
+      </c>
+      <c r="S26" s="24">
+        <v>0</v>
+      </c>
+      <c r="T26" s="24">
+        <v>0</v>
+      </c>
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="24">
+        <v>0</v>
+      </c>
+      <c r="W26" s="24">
+        <v>0</v>
+      </c>
+      <c r="X26" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="24">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="24">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="24">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="24">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="24">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="24">
+        <v>0</v>
+      </c>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
@@ -2286,7 +2398,9 @@
       <c r="K27" s="25">
         <v>0</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
       <c r="M27" s="25">
         <v>0</v>
       </c>
@@ -2296,41 +2410,111 @@
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
+      <c r="P27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>0</v>
+      </c>
+      <c r="R27" s="25">
+        <v>0</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="25">
+        <v>0</v>
+      </c>
+      <c r="U27" s="25">
+        <v>0</v>
+      </c>
+      <c r="V27" s="25">
+        <v>0</v>
+      </c>
+      <c r="W27" s="25">
+        <v>0</v>
+      </c>
+      <c r="X27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="25">
+        <v>0</v>
+      </c>
       <c r="AY27" s="10">
         <f>SUM(C27:AX27)</f>
         <v>0</v>
@@ -2367,7 +2551,9 @@
       <c r="K28" s="24">
         <v>0</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="24">
+        <v>0</v>
+      </c>
       <c r="M28" s="24">
         <v>0</v>
       </c>
@@ -2377,46 +2563,114 @@
       <c r="O28" s="24">
         <v>0</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
+      <c r="P28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24">
+        <v>0</v>
+      </c>
+      <c r="S28" s="24">
+        <v>0</v>
+      </c>
+      <c r="T28" s="24">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24">
+        <v>0</v>
+      </c>
+      <c r="X28" s="24">
+        <v>0</v>
+      </c>
       <c r="Y28" s="24">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="24">
+        <v>0</v>
+      </c>
       <c r="AY28" s="11">
         <f>SUM(C28:AX28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2477,15 +2731,15 @@
       </c>
       <c r="P29" s="19" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="19" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="19" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="19" t="b">
         <f t="shared" si="14"/>
@@ -2513,7 +2767,7 @@
       </c>
       <c r="Y29" s="19" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="19" t="b">
         <f t="shared" si="15"/>
@@ -2616,207 +2870,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
+    <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="M31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L33" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L34" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L37" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L38" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L39" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L40" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L41" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L42" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L45" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L46" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L47" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L48" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L50" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L55" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L56" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L57" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L58" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L60" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L62" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L63" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L64" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L65" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L67" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L68" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L69" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L70" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -328,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,12 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,22 +622,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X12" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView tabSelected="1" topLeftCell="AP11" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,14 +970,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -1237,15 +1228,15 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="27"/>
-      <c r="K12" s="30"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="29"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
@@ -1708,53 +1699,53 @@
       </c>
     </row>
     <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="26"/>
     </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
@@ -2183,10 +2174,10 @@
         <v>27</v>
       </c>
       <c r="AP25" s="23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ25" s="23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" s="23">
         <v>30</v>
@@ -2211,7 +2202,7 @@
       </c>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2336,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="AP26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="24">
         <v>0</v>
@@ -2351,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="24">
         <v>0</v>
@@ -2364,7 +2355,7 @@
       </c>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
@@ -2855,7 +2846,7 @@
       </c>
       <c r="AU29" s="19" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="19" t="b">
         <f t="shared" si="15"/>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP11" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,9 +1723,9 @@
       <c r="Y22" s="30"/>
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
       <c r="AE22" s="29"/>
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
@@ -1742,7 +1742,7 @@
       <c r="AR22" s="26"/>
       <c r="AS22" s="26"/>
       <c r="AT22" s="26"/>
-      <c r="AU22" s="29"/>
+      <c r="AU22" s="26"/>
       <c r="AV22" s="26"/>
       <c r="AW22" s="29"/>
       <c r="AX22" s="26"/>
@@ -2120,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="X25" s="23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y25" s="23">
         <v>30</v>
@@ -2132,13 +2132,13 @@
         <v>40</v>
       </c>
       <c r="AB25" s="23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC25" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE25" s="23">
         <v>24</v>
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="AM25" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" s="23">
         <v>1</v>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>1226</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="24">
         <v>6</v>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="AB26" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="24">
         <v>6</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="24">
         <v>0</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +635,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="AB13" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1722,7 @@
       <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="30"/>
+      <c r="X22" s="31"/>
       <c r="Y22" s="30"/>
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
@@ -1734,7 +1737,7 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
-      <c r="AM22" s="29"/>
+      <c r="AM22" s="26"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="29"/>
       <c r="AP22" s="26"/>
@@ -1967,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="X24" s="22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y24" s="22">
         <v>36</v>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="AY24" s="4">
         <f>SUM(C24:AX24)</f>
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="25" spans="2:51" x14ac:dyDescent="0.2">
@@ -2123,7 +2126,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z25" s="23">
         <v>35</v>
@@ -2171,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="AO25" s="23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP25" s="23">
         <v>19</v>
@@ -2195,14 +2198,14 @@
         <v>9</v>
       </c>
       <c r="AW25" s="23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AX25" s="23">
         <v>8</v>
       </c>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2273,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
         <v>3</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>6</v>
       </c>
       <c r="Z26" s="24">
         <v>0</v>
@@ -2324,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="24">
         <v>0</v>
@@ -2348,14 +2351,14 @@
         <v>0</v>
       </c>
       <c r="AW26" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="24">
         <v>0</v>
       </c>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
@@ -2854,7 +2857,7 @@
       </c>
       <c r="AW29" s="19" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="20" t="b">
         <f t="shared" si="15"/>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Passing</t>
   </si>
@@ -134,12 +134,6 @@
     <t>with</t>
   </si>
   <si>
-    <t>unimplemented apply</t>
-  </si>
-  <si>
-    <t>S13.2.2_A8_T3.js: unimplemented apply</t>
-  </si>
-  <si>
     <t>Expressions</t>
   </si>
   <si>
@@ -287,10 +281,7 @@
     <t>number/S8.5_A2.1.js: overflow not overflow</t>
   </si>
   <si>
-    <t>S11.9.2_A5.2.js: hex conversion</t>
-  </si>
-  <si>
-    <t>S11.9.1_A5.2.js: hex conversion</t>
+    <t>S11.5.3_A4_T7.js: non-integer divisor</t>
   </si>
 </sst>
 </file>
@@ -545,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,9 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -919,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB13" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="AO27" sqref="AO27"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,13 +923,14 @@
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1"/>
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="18" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="1"/>
     <col min="20" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -954,7 +943,7 @@
     <col min="28" max="28" width="10.83203125" style="1"/>
     <col min="29" max="29" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="10.83203125" style="1"/>
     <col min="35" max="35" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -975,7 +964,7 @@
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -1058,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6">
         <v>6</v>
@@ -1077,7 +1066,7 @@
       </c>
       <c r="K4" s="7">
         <f>SUM(C4:J4)</f>
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
@@ -1091,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -1110,7 +1099,7 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -1218,21 +1207,18 @@
     </row>
     <row r="9" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I12" s="26"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -1332,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="K14" s="22">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="22">
         <v>27</v>
@@ -1363,7 +1349,7 @@
       </c>
       <c r="U14" s="4">
         <f>SUM(C14:T14)</f>
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -1458,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="24">
         <v>0</v>
@@ -1489,7 +1475,7 @@
       </c>
       <c r="U16" s="14">
         <f>SUM(C16:T16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:51" x14ac:dyDescent="0.2">
@@ -1696,11 +1682,6 @@
       </c>
     </row>
     <row r="20" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -1715,14 +1696,14 @@
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="31"/>
+      <c r="X22" s="30"/>
       <c r="Y22" s="30"/>
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
@@ -1739,7 +1720,7 @@
       <c r="AL22" s="26"/>
       <c r="AM22" s="26"/>
       <c r="AN22" s="26"/>
-      <c r="AO22" s="29"/>
+      <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
       <c r="AR22" s="26"/>
@@ -1747,156 +1728,156 @@
       <c r="AT22" s="26"/>
       <c r="AU22" s="26"/>
       <c r="AV22" s="26"/>
-      <c r="AW22" s="29"/>
+      <c r="AW22" s="26"/>
       <c r="AX22" s="26"/>
     </row>
     <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="G23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="I23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="16" t="s">
+      <c r="K23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="L23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="M23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="N23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="O23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="P23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="Q23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="R23" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R23" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>25</v>
       </c>
       <c r="T23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="W23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="X23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="Y23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="Z23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="AA23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Z23" s="21" t="s">
+      <c r="AB23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AC23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AD23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AE23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AF23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AE23" s="21" t="s">
+      <c r="AG23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AH23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AI23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AH23" s="21" t="s">
+      <c r="AJ23" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AI23" s="21" t="s">
+      <c r="AK23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AJ23" s="21" t="s">
+      <c r="AL23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="AM23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AL23" s="21" t="s">
+      <c r="AN23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AO23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AP23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AO23" s="21" t="s">
+      <c r="AQ23" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AP23" s="21" t="s">
+      <c r="AR23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AQ23" s="21" t="s">
+      <c r="AS23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AR23" s="21" t="s">
+      <c r="AT23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AU23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AT23" s="21" t="s">
+      <c r="AV23" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AW23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AX23" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="AW23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX23" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="AY23" s="17" t="s">
         <v>5</v>
@@ -2102,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="Q25" s="23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R25" s="23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S25" s="23">
         <v>3</v>
@@ -2126,7 +2107,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z25" s="23">
         <v>35</v>
@@ -2144,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="AE25" s="23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF25" s="23">
         <v>31</v>
@@ -2192,20 +2173,20 @@
         <v>6</v>
       </c>
       <c r="AU25" s="23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV25" s="23">
         <v>9</v>
       </c>
       <c r="AW25" s="23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AX25" s="23">
         <v>8</v>
       </c>
       <c r="AY25" s="7">
         <f>SUM(C25:AX25)</f>
-        <v>1236</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="26" spans="2:51" x14ac:dyDescent="0.2">
@@ -2255,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="24">
         <v>0</v>
@@ -2279,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="24">
         <v>0</v>
@@ -2297,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="24">
         <v>0</v>
@@ -2351,14 +2332,14 @@
         <v>0</v>
       </c>
       <c r="AW26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="24">
         <v>0</v>
       </c>
       <c r="AY26" s="14">
         <f>SUM(C26:AX26)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.2">
@@ -2849,7 +2830,7 @@
       </c>
       <c r="AU29" s="19" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="19" t="b">
         <f t="shared" si="15"/>
@@ -2857,7 +2838,7 @@
       </c>
       <c r="AW29" s="19" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="20" t="b">
         <f t="shared" si="15"/>
@@ -2866,11 +2847,8 @@
     </row>
     <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="Q31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>87</v>
+      <c r="AE31" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PetarMax/Projects/Cosette/test262/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3980" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="3980" windowWidth="35620" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
+    <sheet name="Built-ins" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>Passing</t>
   </si>
@@ -282,13 +283,94 @@
   </si>
   <si>
     <t>S11.5.3_A4_T7.js: non-integer divisor</t>
+  </si>
+  <si>
+    <t>CORE sans eval</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>decodeURIComponent</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>parseFloat</t>
+  </si>
+  <si>
+    <t>encodeURI</t>
+  </si>
+  <si>
+    <t>isFinite</t>
+  </si>
+  <si>
+    <t>parseInt</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>isNaN</t>
+  </si>
+  <si>
+    <t>decodeURI</t>
+  </si>
+  <si>
+    <t>encodeURIComponent</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>RegExp</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>BUILT-INS</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>NativeErrors</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +399,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="8">
@@ -363,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -532,11 +619,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +733,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY31"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:AY37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,1173 +1801,2063 @@
       </c>
     </row>
     <row r="20" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-    </row>
-    <row r="23" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+    <row r="21" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+    </row>
+    <row r="22" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L22" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="V22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="W22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="X23" s="21" t="s">
+      <c r="X22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Z23" s="21" t="s">
+      <c r="Z22" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AA22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AB22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AC22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AD22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AE23" s="21" t="s">
+      <c r="AE22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AF22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AG22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AH23" s="21" t="s">
+      <c r="AH22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AI23" s="21" t="s">
+      <c r="AI22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AJ23" s="21" t="s">
+      <c r="AJ22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="AK22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AL23" s="21" t="s">
+      <c r="AL22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AM22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AN22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AO23" s="21" t="s">
+      <c r="AO22" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AP23" s="21" t="s">
+      <c r="AP22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AQ23" s="21" t="s">
+      <c r="AQ22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AR23" s="21" t="s">
+      <c r="AR22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AS22" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AT23" s="21" t="s">
+      <c r="AT22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AU23" s="21" t="s">
+      <c r="AU22" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AV23" s="21" t="s">
+      <c r="AV22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AW23" s="21" t="s">
+      <c r="AW22" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AX23" s="21" t="s">
+      <c r="AX22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AY23" s="17" t="s">
+      <c r="AY22" s="17" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21</v>
+      </c>
+      <c r="J23" s="22">
+        <v>28</v>
+      </c>
+      <c r="K23" s="22">
+        <v>4</v>
+      </c>
+      <c r="L23" s="22">
+        <v>308</v>
+      </c>
+      <c r="M23" s="22">
+        <v>4</v>
+      </c>
+      <c r="N23" s="22">
+        <v>14</v>
+      </c>
+      <c r="O23" s="22">
+        <v>34</v>
+      </c>
+      <c r="P23" s="22">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>27</v>
+      </c>
+      <c r="R23" s="22">
+        <v>28</v>
+      </c>
+      <c r="S23" s="22">
+        <v>3</v>
+      </c>
+      <c r="T23" s="22">
+        <v>39</v>
+      </c>
+      <c r="U23" s="22">
+        <v>35</v>
+      </c>
+      <c r="V23" s="22">
+        <v>7</v>
+      </c>
+      <c r="W23" s="22">
+        <v>12</v>
+      </c>
+      <c r="X23" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="22">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>40</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>14</v>
+      </c>
+      <c r="AC23" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD23" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="22">
+        <v>31</v>
+      </c>
+      <c r="AG23" s="22">
+        <v>11</v>
+      </c>
+      <c r="AH23" s="22">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="22">
+        <v>19</v>
+      </c>
+      <c r="AJ23" s="22">
+        <v>20</v>
+      </c>
+      <c r="AK23" s="22">
+        <v>20</v>
+      </c>
+      <c r="AL23" s="22">
+        <v>19</v>
+      </c>
+      <c r="AM23" s="22">
+        <v>17</v>
+      </c>
+      <c r="AN23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="22">
+        <v>28</v>
+      </c>
+      <c r="AP23" s="22">
+        <v>19</v>
+      </c>
+      <c r="AQ23" s="22">
+        <v>19</v>
+      </c>
+      <c r="AR23" s="22">
+        <v>30</v>
+      </c>
+      <c r="AS23" s="22">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="22">
+        <v>6</v>
+      </c>
+      <c r="AU23" s="22">
+        <v>11</v>
+      </c>
+      <c r="AV23" s="22">
+        <v>9</v>
+      </c>
+      <c r="AW23" s="22">
+        <v>36</v>
+      </c>
+      <c r="AX23" s="22">
+        <v>8</v>
+      </c>
+      <c r="AY23" s="4">
+        <f>SUM(C23:AX23)</f>
+        <v>1252</v>
+      </c>
+    </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6">
+        <v>21</v>
+      </c>
+      <c r="J24" s="23">
+        <v>28</v>
+      </c>
+      <c r="K24" s="23">
+        <v>4</v>
+      </c>
+      <c r="L24" s="23">
+        <v>308</v>
+      </c>
+      <c r="M24" s="23">
+        <v>4</v>
+      </c>
+      <c r="N24" s="23">
+        <v>14</v>
+      </c>
+      <c r="O24" s="23">
+        <v>34</v>
+      </c>
+      <c r="P24" s="23">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>27</v>
+      </c>
+      <c r="R24" s="23">
+        <v>28</v>
+      </c>
+      <c r="S24" s="23">
+        <v>3</v>
+      </c>
+      <c r="T24" s="23">
+        <v>39</v>
+      </c>
+      <c r="U24" s="23">
+        <v>35</v>
+      </c>
+      <c r="V24" s="23">
+        <v>7</v>
+      </c>
+      <c r="W24" s="23">
+        <v>12</v>
+      </c>
+      <c r="X24" s="23">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="23">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="23">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="23">
+        <v>40</v>
+      </c>
+      <c r="AB24" s="23">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="23">
+        <v>14</v>
+      </c>
+      <c r="AD24" s="23">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="23">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="23">
+        <v>31</v>
+      </c>
+      <c r="AG24" s="23">
+        <v>11</v>
+      </c>
+      <c r="AH24" s="23">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="23">
+        <v>19</v>
+      </c>
+      <c r="AJ24" s="23">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="23">
+        <v>20</v>
+      </c>
+      <c r="AL24" s="23">
+        <v>19</v>
+      </c>
+      <c r="AM24" s="23">
+        <v>17</v>
+      </c>
+      <c r="AN24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="23">
+        <v>28</v>
+      </c>
+      <c r="AP24" s="23">
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="23">
+        <v>19</v>
+      </c>
+      <c r="AR24" s="23">
+        <v>30</v>
+      </c>
+      <c r="AS24" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="23">
+        <v>6</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>11</v>
+      </c>
+      <c r="AV24" s="23">
+        <v>9</v>
+      </c>
+      <c r="AW24" s="23">
+        <v>36</v>
+      </c>
+      <c r="AX24" s="23">
+        <v>8</v>
+      </c>
+      <c r="AY24" s="7">
+        <f>SUM(C24:AX24)</f>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
+        <v>0</v>
+      </c>
+      <c r="N25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0</v>
+      </c>
+      <c r="R25" s="24">
+        <v>0</v>
+      </c>
+      <c r="S25" s="24">
+        <v>0</v>
+      </c>
+      <c r="T25" s="24">
+        <v>0</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
+        <v>0</v>
+      </c>
+      <c r="W25" s="24">
+        <v>0</v>
+      </c>
+      <c r="X25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="14">
+        <f>SUM(C25:AX25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0</v>
+      </c>
+      <c r="T26" s="25">
+        <v>0</v>
+      </c>
+      <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="25">
+        <v>0</v>
+      </c>
+      <c r="W26" s="25">
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="10">
+        <f>SUM(C26:AX26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="M27" s="24">
+        <v>0</v>
+      </c>
+      <c r="N27" s="24">
+        <v>0</v>
+      </c>
+      <c r="O27" s="24">
+        <v>0</v>
+      </c>
+      <c r="P27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>0</v>
+      </c>
+      <c r="R27" s="24">
+        <v>0</v>
+      </c>
+      <c r="S27" s="24">
+        <v>0</v>
+      </c>
+      <c r="T27" s="24">
+        <v>0</v>
+      </c>
+      <c r="U27" s="24">
+        <v>0</v>
+      </c>
+      <c r="V27" s="24">
+        <v>0</v>
+      </c>
+      <c r="W27" s="24">
+        <v>0</v>
+      </c>
+      <c r="X27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="11">
+        <f>SUM(C27:AX27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="19" t="b">
+        <f>(C23=SUM(C24:C27))</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="19" t="b">
+        <f t="shared" ref="D28" si="8">(D23=SUM(D24:D27))</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="19" t="b">
+        <f t="shared" ref="E28" si="9">(E23=SUM(E24:E27))</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="19" t="b">
+        <f t="shared" ref="F28" si="10">(F23=SUM(F24:F27))</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="19" t="b">
+        <f t="shared" ref="G28" si="11">(G23=SUM(G24:G27))</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="19" t="b">
+        <f t="shared" ref="H28" si="12">(H23=SUM(H24:H27))</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="19" t="b">
+        <f t="shared" ref="I28" si="13">(I23=SUM(I24:I27))</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="19" t="b">
+        <f t="shared" ref="J28:S28" si="14">(J23=SUM(J24:J27))</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="19" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="19" t="b">
+        <f t="shared" ref="T28:AX28" si="15">(T23=SUM(T24:T27))</f>
+        <v>1</v>
+      </c>
+      <c r="U28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AF28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AK28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AP28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AR28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AT28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AU28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AV28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AW28" s="19" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AX28" s="20" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3">
+    </row>
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <f>K3+U14+AY23</f>
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" ref="D33:D36" si="16">K4+U15+AY24</f>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="24" max="24" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="1"/>
+    <col min="33" max="33" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10.83203125" style="1"/>
+    <col min="39" max="39" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.83203125" style="1"/>
+    <col min="46" max="46" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="10.83203125" style="1"/>
+    <col min="51" max="51" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.83203125" style="1"/>
+    <col min="53" max="53" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM(C3:N3)</f>
+        <v>82</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="4">
+        <f>O3+C11+F11+I11+L11+O11+R11+C18+F18</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>6</v>
+      </c>
+      <c r="N4" s="6">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7">
+        <f>SUM(C4:N4)</f>
+        <v>82</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" ref="S4:S7" si="0">O4+C12+F12+I12+L12+O12+R12+C19+F19</f>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>SUM(C5:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <f>SUM(C6:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <f>SUM(C7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19" t="b">
+        <f>(C3=SUM(C4:C7))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="b">
+        <f t="shared" ref="D8:I8" si="1">(D3=SUM(D4:D7))</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="19" t="b">
+        <f t="shared" ref="J8:M8" si="2">(J3=SUM(J4:J7))</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="20" t="b">
+        <f>(N3=SUM(N4:N7))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>31</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>140</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>370</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>31</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>118</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>363</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>152</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>22</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14">
+        <v>7</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>43</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
         <v>28</v>
       </c>
-      <c r="F24" s="3">
-        <v>21</v>
-      </c>
-      <c r="G24" s="3">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3">
-        <v>21</v>
-      </c>
-      <c r="I24" s="3">
-        <v>21</v>
-      </c>
-      <c r="J24" s="22">
-        <v>28</v>
-      </c>
-      <c r="K24" s="22">
-        <v>4</v>
-      </c>
-      <c r="L24" s="22">
-        <v>308</v>
-      </c>
-      <c r="M24" s="22">
-        <v>4</v>
-      </c>
-      <c r="N24" s="22">
-        <v>14</v>
-      </c>
-      <c r="O24" s="22">
-        <v>34</v>
-      </c>
-      <c r="P24" s="22">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>27</v>
-      </c>
-      <c r="R24" s="22">
-        <v>28</v>
-      </c>
-      <c r="S24" s="22">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="22">
-        <v>39</v>
-      </c>
-      <c r="U24" s="22">
-        <v>35</v>
-      </c>
-      <c r="V24" s="22">
-        <v>7</v>
-      </c>
-      <c r="W24" s="22">
-        <v>12</v>
-      </c>
-      <c r="X24" s="22">
-        <v>23</v>
-      </c>
-      <c r="Y24" s="22">
-        <v>36</v>
-      </c>
-      <c r="Z24" s="22">
-        <v>35</v>
-      </c>
-      <c r="AA24" s="22">
-        <v>40</v>
-      </c>
-      <c r="AB24" s="22">
-        <v>14</v>
-      </c>
-      <c r="AC24" s="22">
-        <v>14</v>
-      </c>
-      <c r="AD24" s="22">
-        <v>14</v>
-      </c>
-      <c r="AE24" s="22">
-        <v>30</v>
-      </c>
-      <c r="AF24" s="22">
-        <v>31</v>
-      </c>
-      <c r="AG24" s="22">
-        <v>11</v>
-      </c>
-      <c r="AH24" s="22">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="22">
-        <v>19</v>
-      </c>
-      <c r="AJ24" s="22">
-        <v>20</v>
-      </c>
-      <c r="AK24" s="22">
-        <v>20</v>
-      </c>
-      <c r="AL24" s="22">
-        <v>19</v>
-      </c>
-      <c r="AM24" s="22">
-        <v>17</v>
-      </c>
-      <c r="AN24" s="22">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="22">
-        <v>28</v>
-      </c>
-      <c r="AP24" s="22">
-        <v>19</v>
-      </c>
-      <c r="AQ24" s="22">
-        <v>19</v>
-      </c>
-      <c r="AR24" s="22">
-        <v>30</v>
-      </c>
-      <c r="AS24" s="22">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="22">
-        <v>6</v>
-      </c>
-      <c r="AU24" s="22">
-        <v>11</v>
-      </c>
-      <c r="AV24" s="22">
-        <v>9</v>
-      </c>
-      <c r="AW24" s="22">
-        <v>36</v>
-      </c>
-      <c r="AX24" s="22">
-        <v>8</v>
-      </c>
-      <c r="AY24" s="4">
-        <f>SUM(C24:AX24)</f>
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6">
-        <v>28</v>
-      </c>
-      <c r="F25" s="6">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6">
-        <v>13</v>
-      </c>
-      <c r="H25" s="6">
-        <v>21</v>
-      </c>
-      <c r="I25" s="6">
-        <v>21</v>
-      </c>
-      <c r="J25" s="23">
-        <v>28</v>
-      </c>
-      <c r="K25" s="23">
-        <v>4</v>
-      </c>
-      <c r="L25" s="23">
-        <v>308</v>
-      </c>
-      <c r="M25" s="23">
-        <v>4</v>
-      </c>
-      <c r="N25" s="23">
-        <v>14</v>
-      </c>
-      <c r="O25" s="23">
-        <v>34</v>
-      </c>
-      <c r="P25" s="23">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>27</v>
-      </c>
-      <c r="R25" s="23">
-        <v>28</v>
-      </c>
-      <c r="S25" s="23">
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="23">
-        <v>39</v>
-      </c>
-      <c r="U25" s="23">
-        <v>35</v>
-      </c>
-      <c r="V25" s="23">
-        <v>7</v>
-      </c>
-      <c r="W25" s="23">
-        <v>12</v>
-      </c>
-      <c r="X25" s="23">
-        <v>23</v>
-      </c>
-      <c r="Y25" s="23">
-        <v>36</v>
-      </c>
-      <c r="Z25" s="23">
-        <v>35</v>
-      </c>
-      <c r="AA25" s="23">
-        <v>40</v>
-      </c>
-      <c r="AB25" s="23">
-        <v>14</v>
-      </c>
-      <c r="AC25" s="23">
-        <v>14</v>
-      </c>
-      <c r="AD25" s="23">
-        <v>14</v>
-      </c>
-      <c r="AE25" s="23">
-        <v>29</v>
-      </c>
-      <c r="AF25" s="23">
-        <v>31</v>
-      </c>
-      <c r="AG25" s="23">
-        <v>11</v>
-      </c>
-      <c r="AH25" s="23">
-        <v>12</v>
-      </c>
-      <c r="AI25" s="23">
-        <v>19</v>
-      </c>
-      <c r="AJ25" s="23">
-        <v>20</v>
-      </c>
-      <c r="AK25" s="23">
-        <v>20</v>
-      </c>
-      <c r="AL25" s="23">
-        <v>19</v>
-      </c>
-      <c r="AM25" s="23">
-        <v>17</v>
-      </c>
-      <c r="AN25" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="23">
-        <v>28</v>
-      </c>
-      <c r="AP25" s="23">
-        <v>19</v>
-      </c>
-      <c r="AQ25" s="23">
-        <v>19</v>
-      </c>
-      <c r="AR25" s="23">
-        <v>30</v>
-      </c>
-      <c r="AS25" s="23">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="23">
-        <v>6</v>
-      </c>
-      <c r="AU25" s="23">
-        <v>11</v>
-      </c>
-      <c r="AV25" s="23">
-        <v>9</v>
-      </c>
-      <c r="AW25" s="23">
-        <v>36</v>
-      </c>
-      <c r="AX25" s="23">
-        <v>8</v>
-      </c>
-      <c r="AY25" s="7">
-        <f>SUM(C25:AX25)</f>
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="24">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0</v>
-      </c>
-      <c r="M26" s="24">
-        <v>0</v>
-      </c>
-      <c r="N26" s="24">
-        <v>0</v>
-      </c>
-      <c r="O26" s="24">
-        <v>0</v>
-      </c>
-      <c r="P26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>0</v>
-      </c>
-      <c r="R26" s="24">
-        <v>0</v>
-      </c>
-      <c r="S26" s="24">
-        <v>0</v>
-      </c>
-      <c r="T26" s="24">
-        <v>0</v>
-      </c>
-      <c r="U26" s="24">
-        <v>0</v>
-      </c>
-      <c r="V26" s="24">
-        <v>0</v>
-      </c>
-      <c r="W26" s="24">
-        <v>0</v>
-      </c>
-      <c r="X26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="24">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="24">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="14">
-        <f>SUM(C26:AX26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>0</v>
-      </c>
-      <c r="M27" s="25">
-        <v>0</v>
-      </c>
-      <c r="N27" s="25">
-        <v>0</v>
-      </c>
-      <c r="O27" s="25">
-        <v>0</v>
-      </c>
-      <c r="P27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>0</v>
-      </c>
-      <c r="R27" s="25">
-        <v>0</v>
-      </c>
-      <c r="S27" s="25">
-        <v>0</v>
-      </c>
-      <c r="T27" s="25">
-        <v>0</v>
-      </c>
-      <c r="U27" s="25">
-        <v>0</v>
-      </c>
-      <c r="V27" s="25">
-        <v>0</v>
-      </c>
-      <c r="W27" s="25">
-        <v>0</v>
-      </c>
-      <c r="X27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="10">
-        <f>SUM(C27:AX27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="13">
-        <v>0</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <v>0</v>
-      </c>
-      <c r="K28" s="24">
-        <v>0</v>
-      </c>
-      <c r="L28" s="24">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24">
-        <v>0</v>
-      </c>
-      <c r="N28" s="24">
-        <v>0</v>
-      </c>
-      <c r="O28" s="24">
-        <v>0</v>
-      </c>
-      <c r="P28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="24">
-        <v>0</v>
-      </c>
-      <c r="R28" s="24">
-        <v>0</v>
-      </c>
-      <c r="S28" s="24">
-        <v>0</v>
-      </c>
-      <c r="T28" s="24">
-        <v>0</v>
-      </c>
-      <c r="U28" s="24">
-        <v>0</v>
-      </c>
-      <c r="V28" s="24">
-        <v>0</v>
-      </c>
-      <c r="W28" s="24">
-        <v>0</v>
-      </c>
-      <c r="X28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="24">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="11">
-        <f>SUM(C28:AX28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:51" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="19" t="b">
-        <f>(C24=SUM(C25:C28))</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="19" t="b">
-        <f t="shared" ref="D29" si="8">(D24=SUM(D25:D28))</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="19" t="b">
-        <f t="shared" ref="E29" si="9">(E24=SUM(E25:E28))</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="19" t="b">
-        <f t="shared" ref="F29" si="10">(F24=SUM(F25:F28))</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="19" t="b">
-        <f t="shared" ref="G29" si="11">(G24=SUM(G25:G28))</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="19" t="b">
-        <f t="shared" ref="H29" si="12">(H24=SUM(H25:H28))</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="19" t="b">
-        <f t="shared" ref="I29" si="13">(I24=SUM(I25:I28))</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="19" t="b">
-        <f t="shared" ref="J29:S29" si="14">(J24=SUM(J25:J28))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="19" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="19" t="b">
-        <f t="shared" ref="T29:AX29" si="15">(T24=SUM(T25:T28))</f>
-        <v>1</v>
-      </c>
-      <c r="U29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Z29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AC29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AD29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AF29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AH29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AI29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AK29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AL29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AP29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AR29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AS29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AT29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AU29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AV29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AW29" s="19" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AX29" s="20" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AE31" s="1" t="s">
-        <v>84</v>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="35" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/test262/Tests.xlsx
+++ b/test262/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3980" windowWidth="35620" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="4900" windowWidth="35620" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>Passing</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>void</t>
-  </si>
-  <si>
-    <t>S11.5.3_A4_T7.js: non-integer divisor</t>
   </si>
   <si>
     <t>CORE sans eval</t>
@@ -400,7 +397,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +434,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -635,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,9 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1017,8 +1005,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:AY35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1041,7 @@
     <col min="28" max="28" width="10.83203125" style="1"/>
     <col min="29" max="29" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="10.83203125" style="1"/>
     <col min="35" max="35" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1412,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="22">
         <v>24</v>
@@ -1449,7 +1437,7 @@
       </c>
       <c r="U12" s="4">
         <f>SUM(C12:T12)</f>
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
@@ -1475,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" s="23">
         <v>24</v>
@@ -1512,7 +1500,7 @@
       </c>
       <c r="U13" s="7">
         <f>SUM(C13:T13)</f>
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
@@ -1803,14 +1791,14 @@
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
-      <c r="AE19" s="28"/>
+      <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
@@ -2072,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="AE21" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF21" s="22">
         <v>31</v>
@@ -2133,7 +2121,7 @@
       </c>
       <c r="AY21" s="4">
         <f>SUM(C21:AX21)</f>
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
@@ -2378,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="24">
         <v>0</v>
@@ -2439,7 +2427,7 @@
       </c>
       <c r="AY23" s="14">
         <f>SUM(C23:AX23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:51" x14ac:dyDescent="0.2">
@@ -2946,14 +2934,10 @@
       </c>
     </row>
     <row r="27" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AE28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
+    <row r="28" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:51" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C29" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>5</v>
@@ -2974,7 +2958,7 @@
       </c>
       <c r="D31" s="7">
         <f>K4+U13+AY22</f>
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="32" spans="2:51" x14ac:dyDescent="0.2">
@@ -2983,7 +2967,7 @@
       </c>
       <c r="D32" s="14">
         <f>K5+U14+AY23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
@@ -2996,7 +2980,7 @@
       </c>
     </row>
     <row r="34" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="11">
@@ -3005,7 +2989,7 @@
       </c>
     </row>
     <row r="35" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="31"/>
+      <c r="C35" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3017,8 +3001,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScale="125" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,49 +3073,49 @@
     </row>
     <row r="2" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="L2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>5</v>
@@ -3389,7 +3373,7 @@
         <f>SUM(C7:N7)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="11">
@@ -3453,41 +3437,41 @@
     <row r="9" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="15" t="s">
+      <c r="L10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="15" t="s">
+      <c r="O10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>5</v>
@@ -3500,28 +3484,28 @@
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="4">
         <v>31</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="4">
         <v>140</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="4">
         <v>370</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3542,28 +3526,28 @@
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="7">
         <v>31</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="7">
         <v>140</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="7">
         <v>370</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
@@ -3584,28 +3568,28 @@
       <c r="C13" s="14">
         <v>0</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="12" t="s">
         <v>1</v>
       </c>
@@ -3626,28 +3610,28 @@
       <c r="C14" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L14" s="10">
         <v>0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="8" t="s">
         <v>2</v>
       </c>
@@ -3662,41 +3646,41 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="30" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="30" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="11">
@@ -3706,37 +3690,37 @@
     <row r="16" spans="2:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="L17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="R17" s="17" t="s">
         <v>5</v>
@@ -3895,37 +3879,37 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="11">
         <v>0</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="11">
         <v>0</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="11">
         <v>0</v>
       </c>
-      <c r="Q22" s="30" t="s">
+      <c r="Q22" s="29" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="11">
@@ -3934,10 +3918,10 @@
     </row>
     <row r="23" spans="2:18" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
